--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apob-Olr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apob-Olr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>15.131104</v>
+        <v>0.03635433333333333</v>
       </c>
       <c r="N2">
-        <v>45.393312</v>
+        <v>0.109063</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>19.36015173767467</v>
+        <v>0.04651513925588888</v>
       </c>
       <c r="R2">
-        <v>174.241365639072</v>
+        <v>0.418636253303</v>
       </c>
       <c r="S2">
         <v>1</v>
